--- a/data/trans_orig/IP07A16-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A16-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09123755-6055-4A68-8236-94F2761036E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E056A902-22A2-4BED-B23E-B9FB60A77C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{72134619-3A51-41EA-80C8-366A69F0B50B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{09B59A45-C689-4473-ACF6-806228363553}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="448">
   <si>
     <t>Menores según frecuencia de ayudarse entre los amigos en 2007 (Tasa respuesta: 47,1%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>52,68%</t>
   </si>
   <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
   </si>
   <si>
     <t>51,39%</t>
   </si>
   <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
   </si>
   <si>
     <t>52,02%</t>
   </si>
   <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,28 +106,28 @@
     <t>40,04%</t>
   </si>
   <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
   </si>
   <si>
     <t>39,04%</t>
   </si>
   <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
   </si>
   <si>
     <t>39,53%</t>
   </si>
   <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -136,10 +136,10 @@
     <t>7,28%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
   </si>
   <si>
     <t>8,2%</t>
@@ -148,16 +148,16 @@
     <t>3,72%</t>
   </si>
   <si>
-    <t>16,79%</t>
+    <t>17,01%</t>
   </si>
   <si>
     <t>7,75%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -175,13 +175,13 @@
     <t>1,37%</t>
   </si>
   <si>
-    <t>6,88%</t>
+    <t>7,25%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>4,89%</t>
+    <t>3,55%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -202,91 +202,91 @@
     <t>48,94%</t>
   </si>
   <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
   </si>
   <si>
     <t>50,07%</t>
   </si>
   <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
   </si>
   <si>
     <t>41,31%</t>
   </si>
   <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
   </si>
   <si>
     <t>36,64%</t>
   </si>
   <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
   </si>
   <si>
     <t>39,16%</t>
   </si>
   <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
   </si>
   <si>
     <t>9,27%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
   </si>
   <si>
     <t>10,08%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
   </si>
   <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,15%</t>
+    <t>1,03%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>2,14%</t>
+    <t>2,2%</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -295,22 +295,25 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>1,26%</t>
+    <t>1,12%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
+    <t>1,36%</t>
+  </si>
+  <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,61%</t>
+    <t>1,56%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,01%</t>
+    <t>1,02%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -319,1048 +322,1066 @@
     <t>40,72%</t>
   </si>
   <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
   </si>
   <si>
     <t>36,91%</t>
   </si>
   <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
   </si>
   <si>
     <t>38,71%</t>
   </si>
   <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
   </si>
   <si>
     <t>47,66%</t>
   </si>
   <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
   </si>
   <si>
     <t>47,51%</t>
   </si>
   <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
     <t>37,52%</t>
   </si>
   <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de ayudarse entre los amigos en 2012 (Tasa respuesta: 44,69%)</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de ayudarse entre los amigos en 2016 (Tasa respuesta: 47,04%)</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
   </si>
   <si>
     <t>52,01%</t>
   </si>
   <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de ayudarse entre los amigos en 2012 (Tasa respuesta: 44,69%)</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
   </si>
   <si>
     <t>36,37%</t>
   </si>
   <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de ayudarse entre los amigos en 2015 (Tasa respuesta: 47,04%)</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
     <t>33,92%</t>
   </si>
   <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
   </si>
   <si>
     <t>7,18%</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
   </si>
   <si>
     <t>9,14%</t>
   </si>
   <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
+    <t>12,09%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>2,91%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
   </si>
   <si>
     <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +1793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7968B3E1-66C4-49BA-9008-CE358407A52E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D29B061-11B0-4327-9240-77B64352C1B5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2414,7 +2435,7 @@
         <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2423,13 +2444,13 @@
         <v>632</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2438,13 +2459,13 @@
         <v>1280</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,7 +2521,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2512,13 +2533,13 @@
         <v>24330</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -2527,13 +2548,13 @@
         <v>24677</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -2542,13 +2563,13 @@
         <v>49007</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,13 +2584,13 @@
         <v>28477</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -2578,13 +2599,13 @@
         <v>31762</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>88</v>
@@ -2593,13 +2614,13 @@
         <v>60239</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,13 +2635,13 @@
         <v>6938</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -2629,13 +2650,13 @@
         <v>9762</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -2644,13 +2665,13 @@
         <v>16699</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,7 +2692,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2680,13 +2701,13 @@
         <v>654</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2695,13 +2716,13 @@
         <v>654</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,7 +2743,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2737,7 +2758,7 @@
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2752,7 +2773,7 @@
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2841,13 @@
         <v>165328</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>231</v>
@@ -2835,13 +2856,13 @@
         <v>154553</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>480</v>
@@ -2850,13 +2871,13 @@
         <v>319882</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2892,13 @@
         <v>145406</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>184</v>
@@ -2886,13 +2907,13 @@
         <v>125567</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>401</v>
@@ -2901,13 +2922,13 @@
         <v>270974</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,13 +2943,13 @@
         <v>32374</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H24" s="7">
         <v>54</v>
@@ -2937,13 +2958,13 @@
         <v>36209</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>103</v>
@@ -2952,13 +2973,13 @@
         <v>68583</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,13 +2994,13 @@
         <v>487</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2988,13 +3009,13 @@
         <v>2604</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>79</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -3003,13 +3024,13 @@
         <v>3091</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3045,13 @@
         <v>647</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3039,13 +3060,13 @@
         <v>632</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -3054,13 +3075,13 @@
         <v>1280</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,7 +3137,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3135,7 +3156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F1B972-BE90-4732-A4FF-D1D9CE7CD604}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E83EB7-2DF0-4441-B073-266D32A1EA33}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3152,7 +3173,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3259,13 +3280,13 @@
         <v>24258</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -3274,13 +3295,13 @@
         <v>28629</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M4" s="7">
         <v>76</v>
@@ -3289,13 +3310,13 @@
         <v>52887</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3331,13 @@
         <v>18429</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -3325,13 +3346,13 @@
         <v>16455</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>49</v>
@@ -3340,13 +3361,13 @@
         <v>34884</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,13 +3382,13 @@
         <v>3166</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -3376,13 +3397,13 @@
         <v>5566</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -3391,13 +3412,13 @@
         <v>8732</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,7 +3439,7 @@
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3469,7 +3490,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3648,13 +3669,13 @@
         <v>176389</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3690,13 @@
         <v>20439</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
@@ -3684,13 +3705,13 @@
         <v>12611</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M12" s="7">
         <v>49</v>
@@ -3699,13 +3720,13 @@
         <v>33050</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3741,13 @@
         <v>2642</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3735,13 +3756,13 @@
         <v>2611</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3750,13 +3771,13 @@
         <v>5253</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,13 +3792,13 @@
         <v>1298</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3786,7 +3807,7 @@
         <v>2275</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>236</v>
@@ -3804,10 +3825,10 @@
         <v>238</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>239</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,7 +3884,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3875,13 +3896,13 @@
         <v>33612</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -3890,13 +3911,13 @@
         <v>35468</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
@@ -3905,13 +3926,13 @@
         <v>69081</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,13 +3947,13 @@
         <v>18014</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -3941,13 +3962,13 @@
         <v>23749</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
@@ -3956,13 +3977,13 @@
         <v>41763</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,13 +3998,13 @@
         <v>4643</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -3992,13 +4013,13 @@
         <v>2716</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -4007,13 +4028,13 @@
         <v>7358</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>262</v>
+        <v>112</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4049,13 @@
         <v>1664</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4049,7 +4070,7 @@
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4064,7 +4085,7 @@
         <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,7 +4106,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4094,13 +4115,13 @@
         <v>1485</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>272</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4109,13 +4130,13 @@
         <v>1485</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4204,13 @@
         <v>175523</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H22" s="7">
         <v>227</v>
@@ -4198,13 +4219,13 @@
         <v>160985</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>487</v>
@@ -4213,13 +4234,13 @@
         <v>336508</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4255,13 @@
         <v>121799</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H23" s="7">
         <v>188</v>
@@ -4249,13 +4270,13 @@
         <v>131237</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>283</v>
+        <v>62</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M23" s="7">
         <v>361</v>
@@ -4264,13 +4285,13 @@
         <v>253037</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>68</v>
+        <v>290</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,13 +4306,13 @@
         <v>28247</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -4300,13 +4321,13 @@
         <v>20893</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="M24" s="7">
         <v>71</v>
@@ -4315,13 +4336,13 @@
         <v>49140</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>222</v>
+        <v>299</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,10 +4360,10 @@
         <v>50</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -4351,13 +4372,13 @@
         <v>4325</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>298</v>
+        <v>123</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -4366,13 +4387,13 @@
         <v>8631</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>301</v>
+        <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4408,13 @@
         <v>1298</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>85</v>
+        <v>228</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -4402,13 +4423,13 @@
         <v>3760</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>89</v>
+        <v>308</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>226</v>
+        <v>309</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -4417,13 +4438,13 @@
         <v>5058</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,7 +4500,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F50764-A71C-4A6D-AB9B-D659BF40F13F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DA9DD5-E5ED-4563-81C4-8B437D391720}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4515,7 +4536,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4622,13 +4643,13 @@
         <v>11176</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -4637,13 +4658,13 @@
         <v>17785</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -4652,13 +4673,13 @@
         <v>28962</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4694,13 @@
         <v>20415</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -4688,13 +4709,13 @@
         <v>12549</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -4703,13 +4724,13 @@
         <v>32964</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4745,13 @@
         <v>5046</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4739,13 +4760,13 @@
         <v>1481</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -4754,13 +4775,13 @@
         <v>6527</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,7 +4802,7 @@
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4796,7 +4817,7 @@
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4811,7 +4832,7 @@
         <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,7 +4853,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4847,7 +4868,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4862,7 +4883,7 @@
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,13 +4951,13 @@
         <v>139044</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="H10" s="7">
         <v>205</v>
@@ -4945,13 +4966,13 @@
         <v>142498</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="M10" s="7">
         <v>394</v>
@@ -4960,13 +4981,13 @@
         <v>281542</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,13 +5002,13 @@
         <v>83936</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="H11" s="7">
         <v>109</v>
@@ -4996,13 +5017,13 @@
         <v>74110</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="M11" s="7">
         <v>223</v>
@@ -5011,13 +5032,13 @@
         <v>158047</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>182</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,13 +5053,13 @@
         <v>18697</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H12" s="7">
         <v>37</v>
@@ -5047,13 +5068,13 @@
         <v>26869</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="M12" s="7">
         <v>64</v>
@@ -5062,13 +5083,13 @@
         <v>45566</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>145</v>
+        <v>368</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5104,13 @@
         <v>2098</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5098,13 +5119,13 @@
         <v>4285</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5113,13 +5134,13 @@
         <v>6382</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,7 +5161,7 @@
         <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>50</v>
+        <v>379</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5149,13 +5170,13 @@
         <v>724</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -5164,13 +5185,13 @@
         <v>1513</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>369</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,7 +5247,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5238,13 +5259,13 @@
         <v>52272</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -5253,13 +5274,13 @@
         <v>40864</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="M16" s="7">
         <v>127</v>
@@ -5268,13 +5289,13 @@
         <v>93135</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>377</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5310,13 @@
         <v>22298</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -5304,13 +5325,13 @@
         <v>28850</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -5319,13 +5340,13 @@
         <v>51148</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5361,13 @@
         <v>2052</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>389</v>
+        <v>156</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -5355,13 +5376,13 @@
         <v>4057</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>195</v>
+        <v>402</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -5370,13 +5391,13 @@
         <v>6109</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +5412,13 @@
         <v>1440</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5406,13 +5427,13 @@
         <v>626</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -5421,13 +5442,13 @@
         <v>2066</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>400</v>
+        <v>87</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>401</v>
+        <v>311</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,7 +5469,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5463,7 +5484,7 @@
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5478,7 +5499,7 @@
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5567,13 @@
         <v>202492</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="H22" s="7">
         <v>286</v>
@@ -5561,13 +5582,13 @@
         <v>201147</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="M22" s="7">
         <v>562</v>
@@ -5576,13 +5597,13 @@
         <v>403639</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,13 +5618,13 @@
         <v>126650</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="H23" s="7">
         <v>169</v>
@@ -5612,13 +5633,13 @@
         <v>115509</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="M23" s="7">
         <v>343</v>
@@ -5627,13 +5648,13 @@
         <v>242159</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5669,13 @@
         <v>25795</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="H24" s="7">
         <v>45</v>
@@ -5663,13 +5684,13 @@
         <v>32407</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>428</v>
+        <v>186</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="M24" s="7">
         <v>82</v>
@@ -5678,13 +5699,13 @@
         <v>58202</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5720,13 @@
         <v>3538</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>433</v>
+        <v>88</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5714,13 +5735,13 @@
         <v>4911</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>233</v>
+        <v>441</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -5729,13 +5750,13 @@
         <v>8449</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,13 +5771,13 @@
         <v>790</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5765,13 +5786,13 @@
         <v>724</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5786,7 +5807,7 @@
         <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>301</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,7 +5863,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A16-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A16-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E056A902-22A2-4BED-B23E-B9FB60A77C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2846B3F-A185-4384-A11E-A289132EC5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{09B59A45-C689-4473-ACF6-806228363553}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CB8A364A-18CA-47EB-9C1D-04E8F02146C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="446">
   <si>
     <t>Menores según frecuencia de ayudarse entre los amigos en 2007 (Tasa respuesta: 47,1%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1315 +73,1309 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
     <t>52,68%</t>
   </si>
   <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
   </si>
   <si>
     <t>52,02%</t>
   </si>
   <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
     <t>40,04%</t>
   </si>
   <si>
-    <t>28,82%</t>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de ayudarse entre los amigos en 2012 (Tasa respuesta: 44,69%)</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de ayudarse entre los amigos en 2016 (Tasa respuesta: 47,04%)</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
   </si>
   <si>
     <t>52,39%</t>
   </si>
   <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
   </si>
   <si>
     <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de ayudarse entre los amigos en 2012 (Tasa respuesta: 44,69%)</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de ayudarse entre los amigos en 2016 (Tasa respuesta: 47,04%)</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
   </si>
 </sst>
 </file>
@@ -1793,7 +1787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D29B061-11B0-4327-9240-77B64352C1B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524FF006-3921-493B-A62A-C026C381C881}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1911,10 +1905,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7">
-        <v>24881</v>
+        <v>25716</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1926,10 +1920,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="7">
-        <v>25716</v>
+        <v>24881</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1962,10 +1956,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>18909</v>
+        <v>19538</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1977,10 +1971,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>19538</v>
+        <v>18909</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2013,10 +2007,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>3440</v>
+        <v>4103</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2028,10 +2022,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>4103</v>
+        <v>3440</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2064,10 +2058,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2079,16 +2073,16 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>683</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>45</v>
@@ -2103,7 +2097,7 @@
         <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>47</v>
@@ -2121,13 +2115,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2136,13 +2130,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2151,10 +2145,10 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>50</v>
@@ -2166,25 +2160,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>75</v>
+      </c>
+      <c r="D9" s="7">
+        <v>50041</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="7">
         <v>71</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>47230</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="7">
-        <v>75</v>
-      </c>
-      <c r="I9" s="7">
-        <v>50041</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>51</v>
@@ -2219,28 +2213,28 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>157</v>
+      </c>
+      <c r="D10" s="7">
+        <v>104160</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="7">
         <v>175</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>116117</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="H10" s="7">
-        <v>157</v>
-      </c>
-      <c r="I10" s="7">
-        <v>104160</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>56</v>
@@ -2270,10 +2264,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="D11" s="7">
-        <v>98020</v>
+        <v>74267</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>61</v>
@@ -2285,10 +2279,10 @@
         <v>63</v>
       </c>
       <c r="H11" s="7">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="I11" s="7">
-        <v>74267</v>
+        <v>98020</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>64</v>
@@ -2324,7 +2318,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="7">
-        <v>21996</v>
+        <v>22344</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -2339,7 +2333,7 @@
         <v>34</v>
       </c>
       <c r="I12" s="7">
-        <v>22344</v>
+        <v>21996</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -2372,31 +2366,31 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>487</v>
+        <v>1267</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>80</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>1267</v>
+        <v>487</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>82</v>
@@ -2426,13 +2420,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>87</v>
@@ -2441,13 +2435,13 @@
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>89</v>
@@ -2462,7 +2456,7 @@
         <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>91</v>
@@ -2474,25 +2468,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>303</v>
+      </c>
+      <c r="D15" s="7">
+        <v>202670</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="7">
         <v>358</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>237268</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="7">
-        <v>303</v>
-      </c>
-      <c r="I15" s="7">
-        <v>202670</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>51</v>
@@ -2527,10 +2521,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="7">
-        <v>24330</v>
+        <v>24677</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>93</v>
@@ -2542,10 +2536,10 @@
         <v>95</v>
       </c>
       <c r="H16" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I16" s="7">
-        <v>24677</v>
+        <v>24330</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>96</v>
@@ -2578,10 +2572,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D17" s="7">
-        <v>28477</v>
+        <v>31762</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>102</v>
@@ -2593,10 +2587,10 @@
         <v>104</v>
       </c>
       <c r="H17" s="7">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I17" s="7">
-        <v>31762</v>
+        <v>28477</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>105</v>
@@ -2629,10 +2623,10 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D18" s="7">
-        <v>6938</v>
+        <v>9762</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>111</v>
@@ -2644,10 +2638,10 @@
         <v>113</v>
       </c>
       <c r="H18" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>9762</v>
+        <v>6938</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>114</v>
@@ -2680,31 +2674,31 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>122</v>
@@ -2719,7 +2713,7 @@
         <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>124</v>
@@ -2737,13 +2731,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2752,13 +2746,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2767,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>126</v>
@@ -2782,25 +2776,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>96</v>
+      </c>
+      <c r="D21" s="7">
+        <v>66854</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="7">
         <v>88</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>59745</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="7">
-        <v>96</v>
-      </c>
-      <c r="I21" s="7">
-        <v>66854</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>51</v>
@@ -2835,10 +2829,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="D22" s="7">
-        <v>165328</v>
+        <v>154553</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>127</v>
@@ -2850,10 +2844,10 @@
         <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="I22" s="7">
-        <v>154553</v>
+        <v>165328</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>130</v>
@@ -2886,10 +2880,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="D23" s="7">
-        <v>145406</v>
+        <v>125567</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>136</v>
@@ -2901,10 +2895,10 @@
         <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="I23" s="7">
-        <v>125567</v>
+        <v>145406</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>139</v>
@@ -2913,7 +2907,7 @@
         <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="M23" s="7">
         <v>401</v>
@@ -2922,13 +2916,13 @@
         <v>270974</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,34 +2931,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>54</v>
+      </c>
+      <c r="D24" s="7">
+        <v>36209</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="7">
         <v>49</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>32374</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H24" s="7">
-        <v>54</v>
-      </c>
-      <c r="I24" s="7">
-        <v>36209</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>103</v>
@@ -2973,13 +2967,13 @@
         <v>68583</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,34 +2982,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2604</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>487</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2604</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -3024,13 +3018,13 @@
         <v>3091</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,31 +3036,31 @@
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -3075,13 +3069,13 @@
         <v>1280</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,25 +3084,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>474</v>
+      </c>
+      <c r="D27" s="7">
+        <v>319566</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="7">
         <v>517</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>344243</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="7">
-        <v>474</v>
-      </c>
-      <c r="I27" s="7">
-        <v>319566</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>51</v>
@@ -3137,7 +3131,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3156,7 +3150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E83EB7-2DF0-4441-B073-266D32A1EA33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857FB8BF-04C7-46D3-9910-1CF0F38D5458}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3173,7 +3167,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3274,34 +3268,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>41</v>
+      </c>
+      <c r="D4" s="7">
+        <v>28629</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="7">
         <v>35</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>24258</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H4" s="7">
-        <v>41</v>
-      </c>
-      <c r="I4" s="7">
-        <v>28629</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M4" s="7">
         <v>76</v>
@@ -3310,13 +3304,13 @@
         <v>52887</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,34 +3319,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>24</v>
+      </c>
+      <c r="D5" s="7">
+        <v>16455</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="7">
         <v>25</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>18429</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H5" s="7">
-        <v>24</v>
-      </c>
-      <c r="I5" s="7">
-        <v>16455</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>49</v>
@@ -3361,13 +3355,13 @@
         <v>34884</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,34 +3370,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5566</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H6" s="7">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>3166</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H6" s="7">
-        <v>7</v>
-      </c>
-      <c r="I6" s="7">
-        <v>5566</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -3412,7 +3406,7 @@
         <v>8732</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>192</v>
@@ -3427,34 +3421,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1714</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>1714</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3463,13 +3457,13 @@
         <v>1714</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>199</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3499,13 +3493,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3514,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,25 +3523,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>74</v>
+      </c>
+      <c r="D9" s="7">
+        <v>52364</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45853</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="7">
-        <v>74</v>
-      </c>
-      <c r="I9" s="7">
-        <v>52364</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>51</v>
@@ -3582,34 +3576,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>136</v>
+      </c>
+      <c r="D10" s="7">
+        <v>96888</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H10" s="7">
         <v>174</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>117653</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H10" s="7">
-        <v>136</v>
-      </c>
-      <c r="I10" s="7">
-        <v>96888</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>310</v>
@@ -3618,13 +3612,13 @@
         <v>214541</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,34 +3627,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>132</v>
+      </c>
+      <c r="D11" s="7">
+        <v>91033</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="7">
         <v>122</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>85356</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H11" s="7">
-        <v>132</v>
-      </c>
-      <c r="I11" s="7">
-        <v>91033</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M11" s="7">
         <v>254</v>
@@ -3669,13 +3663,13 @@
         <v>176389</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,34 +3678,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7">
+        <v>12611</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H12" s="7">
         <v>30</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>20439</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H12" s="7">
-        <v>19</v>
-      </c>
-      <c r="I12" s="7">
-        <v>12611</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M12" s="7">
         <v>49</v>
@@ -3720,13 +3714,13 @@
         <v>33050</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,31 +3732,31 @@
         <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>2642</v>
+        <v>2611</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>2611</v>
+        <v>2642</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3771,13 +3765,13 @@
         <v>5253</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,34 +3780,34 @@
         <v>48</v>
       </c>
       <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2275</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>1298</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2275</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>236</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -3822,13 +3816,13 @@
         <v>3573</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>239</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,25 +3831,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>294</v>
+      </c>
+      <c r="D15" s="7">
+        <v>205418</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="7">
         <v>332</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>227388</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="7">
-        <v>294</v>
-      </c>
-      <c r="I15" s="7">
-        <v>205418</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>51</v>
@@ -3890,34 +3884,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="7">
+        <v>35468</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H16" s="7">
+        <v>51</v>
+      </c>
+      <c r="I16" s="7">
         <v>33612</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H16" s="7">
-        <v>50</v>
-      </c>
-      <c r="I16" s="7">
-        <v>35468</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
@@ -3926,13 +3920,13 @@
         <v>69081</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,34 +3935,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>32</v>
+      </c>
+      <c r="D17" s="7">
+        <v>23749</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H17" s="7">
         <v>26</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>18014</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H17" s="7">
-        <v>32</v>
-      </c>
-      <c r="I17" s="7">
-        <v>23749</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
@@ -3977,13 +3971,13 @@
         <v>41763</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,34 +3986,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2716</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H18" s="7">
         <v>6</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>4643</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H18" s="7">
-        <v>4</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2716</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -4028,13 +4022,13 @@
         <v>7358</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,34 +4037,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>1664</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4079,13 +4073,13 @@
         <v>1664</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,34 +4088,34 @@
         <v>48</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>1485</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>41</v>
+        <v>272</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>1485</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>271</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4130,13 +4124,13 @@
         <v>1485</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,25 +4139,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>88</v>
+      </c>
+      <c r="D21" s="7">
+        <v>63418</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="7">
         <v>85</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>57933</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="7">
-        <v>88</v>
-      </c>
-      <c r="I21" s="7">
-        <v>63418</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>51</v>
@@ -4198,34 +4192,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>227</v>
+      </c>
+      <c r="D22" s="7">
+        <v>160985</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H22" s="7">
         <v>260</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>175523</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H22" s="7">
-        <v>227</v>
-      </c>
-      <c r="I22" s="7">
-        <v>160985</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>279</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M22" s="7">
         <v>487</v>
@@ -4234,13 +4228,13 @@
         <v>336508</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,34 +4243,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>188</v>
+      </c>
+      <c r="D23" s="7">
+        <v>131237</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H23" s="7">
         <v>173</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>121799</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H23" s="7">
-        <v>188</v>
-      </c>
-      <c r="I23" s="7">
-        <v>131237</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>62</v>
+        <v>289</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M23" s="7">
         <v>361</v>
@@ -4285,13 +4279,13 @@
         <v>253037</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,34 +4294,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>30</v>
+      </c>
+      <c r="D24" s="7">
+        <v>20893</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H24" s="7">
         <v>41</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>28247</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H24" s="7">
-        <v>30</v>
-      </c>
-      <c r="I24" s="7">
-        <v>20893</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>296</v>
+        <v>218</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M24" s="7">
         <v>71</v>
@@ -4336,13 +4330,13 @@
         <v>49140</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,31 +4348,31 @@
         <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>4306</v>
+        <v>4325</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>50</v>
+        <v>302</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
       </c>
       <c r="I25" s="7">
-        <v>4325</v>
+        <v>4306</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>303</v>
+        <v>50</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>123</v>
+        <v>305</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -4387,13 +4381,13 @@
         <v>8631</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>46</v>
+        <v>308</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,34 +4396,34 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
+        <v>5</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3760</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H26" s="7">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>1298</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H26" s="7">
-        <v>5</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3760</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>308</v>
+        <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -4438,13 +4432,13 @@
         <v>5058</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>311</v>
+        <v>236</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,25 +4447,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>456</v>
+      </c>
+      <c r="D27" s="7">
+        <v>321200</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="7">
         <v>482</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>331174</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="7">
-        <v>456</v>
-      </c>
-      <c r="I27" s="7">
-        <v>321200</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>51</v>
@@ -4500,7 +4494,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -4519,7 +4513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DA9DD5-E5ED-4563-81C4-8B437D391720}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1655F86-7E2F-437C-BD14-E93674578A8E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4536,7 +4530,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4637,34 +4631,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7">
+        <v>17785</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H4" s="7">
         <v>16</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>11176</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H4" s="7">
-        <v>25</v>
-      </c>
-      <c r="I4" s="7">
-        <v>17785</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -4673,13 +4667,13 @@
         <v>28962</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,34 +4682,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7">
+        <v>12549</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H5" s="7">
         <v>28</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>20415</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H5" s="7">
-        <v>19</v>
-      </c>
-      <c r="I5" s="7">
-        <v>12549</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -4724,13 +4718,13 @@
         <v>32964</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,34 +4733,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1481</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H6" s="7">
         <v>7</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>5046</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1481</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>41</v>
+        <v>339</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -4775,13 +4769,13 @@
         <v>6527</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,13 +4790,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4811,13 +4805,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4826,13 +4820,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +4841,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4862,13 +4856,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4877,13 +4871,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>342</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,25 +4886,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D9" s="7">
+        <v>31814</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="7">
+        <v>51</v>
+      </c>
+      <c r="I9" s="7">
         <v>36638</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="7">
-        <v>46</v>
-      </c>
-      <c r="I9" s="7">
-        <v>31814</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>51</v>
@@ -4945,34 +4939,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>205</v>
+      </c>
+      <c r="D10" s="7">
+        <v>142498</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H10" s="7">
         <v>189</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>139044</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="H10" s="7">
-        <v>205</v>
-      </c>
-      <c r="I10" s="7">
-        <v>142498</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M10" s="7">
         <v>394</v>
@@ -4981,13 +4975,13 @@
         <v>281542</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,34 +4990,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>109</v>
+      </c>
+      <c r="D11" s="7">
+        <v>74110</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H11" s="7">
         <v>114</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>83936</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="H11" s="7">
-        <v>109</v>
-      </c>
-      <c r="I11" s="7">
-        <v>74110</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M11" s="7">
         <v>223</v>
@@ -5032,13 +5026,13 @@
         <v>158047</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,34 +5041,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>37</v>
+      </c>
+      <c r="D12" s="7">
+        <v>26869</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H12" s="7">
         <v>27</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>18697</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H12" s="7">
-        <v>37</v>
-      </c>
-      <c r="I12" s="7">
-        <v>26869</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M12" s="7">
         <v>64</v>
@@ -5083,13 +5077,13 @@
         <v>45566</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,34 +5092,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4285</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>2098</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4285</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5134,7 +5128,7 @@
         <v>6382</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>314</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>377</v>
@@ -5152,31 +5146,31 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>790</v>
+        <v>724</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>236</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>197</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>724</v>
+        <v>790</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>236</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -5185,13 +5179,13 @@
         <v>1513</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,25 +5194,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>357</v>
+      </c>
+      <c r="D15" s="7">
+        <v>248486</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="7">
         <v>334</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>244565</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="7">
-        <v>357</v>
-      </c>
-      <c r="I15" s="7">
-        <v>248486</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>51</v>
@@ -5253,34 +5247,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D16" s="7">
-        <v>52272</v>
+        <v>40864</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>381</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>71</v>
+      </c>
+      <c r="I16" s="7">
+        <v>52272</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="H16" s="7">
-        <v>56</v>
-      </c>
-      <c r="I16" s="7">
-        <v>40864</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M16" s="7">
         <v>127</v>
@@ -5289,10 +5283,10 @@
         <v>93135</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>388</v>
@@ -5304,10 +5298,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D17" s="7">
-        <v>22298</v>
+        <v>28850</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>389</v>
@@ -5319,10 +5313,10 @@
         <v>391</v>
       </c>
       <c r="H17" s="7">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I17" s="7">
-        <v>28850</v>
+        <v>22298</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>392</v>
@@ -5346,7 +5340,7 @@
         <v>396</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>397</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,34 +5349,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4057</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H18" s="7">
         <v>3</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>2052</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="H18" s="7">
-        <v>6</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4057</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -5391,13 +5385,13 @@
         <v>6109</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,34 +5400,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>626</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>1440</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>626</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -5442,13 +5436,13 @@
         <v>2066</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>311</v>
+        <v>407</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5457,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5478,13 +5472,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5493,13 +5487,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,25 +5502,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>104</v>
+      </c>
+      <c r="D21" s="7">
+        <v>74398</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="7">
         <v>108</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>78061</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="7">
-        <v>104</v>
-      </c>
-      <c r="I21" s="7">
-        <v>74398</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>51</v>
@@ -5561,34 +5555,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>286</v>
+      </c>
+      <c r="D22" s="7">
+        <v>201147</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H22" s="7">
         <v>276</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>202492</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="H22" s="7">
-        <v>286</v>
-      </c>
-      <c r="I22" s="7">
-        <v>201147</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="M22" s="7">
         <v>562</v>
@@ -5597,13 +5591,13 @@
         <v>403639</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,34 +5606,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>169</v>
+      </c>
+      <c r="D23" s="7">
+        <v>115509</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="7">
         <v>174</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>126650</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="H23" s="7">
-        <v>169</v>
-      </c>
-      <c r="I23" s="7">
-        <v>115509</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="M23" s="7">
         <v>343</v>
@@ -5648,13 +5642,13 @@
         <v>242159</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,34 +5657,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>45</v>
+      </c>
+      <c r="D24" s="7">
+        <v>32407</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H24" s="7">
         <v>37</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>25795</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="H24" s="7">
-        <v>45</v>
-      </c>
-      <c r="I24" s="7">
-        <v>32407</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="M24" s="7">
         <v>82</v>
@@ -5699,13 +5693,13 @@
         <v>58202</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,34 +5708,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>3538</v>
+        <v>4911</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>121</v>
+        <v>438</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>88</v>
+        <v>234</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>439</v>
       </c>
       <c r="H25" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>4911</v>
+        <v>3538</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>441</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>442</v>
+        <v>274</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -5750,13 +5744,13 @@
         <v>8449</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>445</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5768,31 +5762,31 @@
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>790</v>
+        <v>724</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>446</v>
+        <v>160</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>164</v>
+        <v>443</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>724</v>
+        <v>790</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>163</v>
+        <v>444</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>91</v>
+        <v>445</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5801,13 +5795,13 @@
         <v>1513</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>447</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,25 +5810,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>507</v>
+      </c>
+      <c r="D27" s="7">
+        <v>354698</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="7">
         <v>493</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>359264</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="7">
-        <v>507</v>
-      </c>
-      <c r="I27" s="7">
-        <v>354698</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>51</v>
@@ -5863,7 +5857,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
